--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/player/Kegelgötter.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/player/Kegelgötter.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>firstName</t>
   </si>
@@ -34,6 +34,12 @@
     <t>MALE</t>
   </si>
   <si>
+    <t>Kai</t>
+  </si>
+  <si>
+    <t>Drecksträter</t>
+  </si>
+  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -65,6 +71,12 @@
   </si>
   <si>
     <t>Schmoll</t>
+  </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>Stanka</t>
   </si>
   <si>
     <t>Andreas</t>
@@ -125,11 +137,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -236,10 +248,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -250,7 +262,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -259,6 +271,34 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="b">
         <v>1</v>
       </c>
     </row>
